--- a/Admin Stuff/Spreadsheet Stuff.xlsx
+++ b/Admin Stuff/Spreadsheet Stuff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>Game Component</t>
   </si>
@@ -129,107 +129,251 @@
     <t>Assets</t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>Team Member Responsible</t>
   </si>
   <si>
-    <t>Date Due</t>
-  </si>
-  <si>
-    <t>Human Protagonist - Name:Aaron</t>
-  </si>
-  <si>
-    <t>Concept Art Front/Side/Face</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronConc.png</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesh </t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronMesh.obj</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Rig</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronRig.3ds</t>
-  </si>
-  <si>
-    <t>Texture</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronTextAtlas.png</t>
-  </si>
-  <si>
-    <t>Animations</t>
-  </si>
-  <si>
-    <t>Walk Anim</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronWalk.anim</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Idle Anim</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronIdle.anim</t>
-  </si>
-  <si>
-    <t>Leap Anim</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronLeap.anim</t>
-  </si>
-  <si>
-    <t>Attack Anim</t>
-  </si>
-  <si>
-    <t>UnityPath/model/AaronAttack.anim</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>Weapon Grunt</t>
-  </si>
-  <si>
-    <t>UnityPath/audio/AaronGrunt.wav</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Yell</t>
-  </si>
-  <si>
-    <t>UnityPath/audio/AaronYell.wav</t>
-  </si>
-  <si>
-    <t>Death Cry</t>
-  </si>
-  <si>
-    <t>UnityPath/audio/AaronDeath.wav</t>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Level Model</t>
+  </si>
+  <si>
+    <t>Ashleigh</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Ashleigh/Nathan</t>
+  </si>
+  <si>
+    <t>Industrialist Carriage</t>
+  </si>
+  <si>
+    <t>Date Due (Week)</t>
+  </si>
+  <si>
+    <t>Predicted Duration (Hours)</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\Push_Pin_Trap.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Mesh\Scenery\Pyramid Scene.fbx</t>
+  </si>
+  <si>
+    <t>Universal</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\UI</t>
+  </si>
+  <si>
+    <t>Audio Manager</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\UI\AudioManager.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_ProximityLight</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Player\P_Gshot.cs</t>
+  </si>
+  <si>
+    <t>Player Movement Script</t>
+  </si>
+  <si>
+    <t>Nathan/Pierce/Josh</t>
+  </si>
+  <si>
+    <t>Complete? (1 = yes/0 = no)</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_Pyramid_Door</t>
+  </si>
+  <si>
+    <t>File Name/Location</t>
+  </si>
+  <si>
+    <t>Nathan/Ashleigh</t>
+  </si>
+  <si>
+    <t>Pressure Plate</t>
+  </si>
+  <si>
+    <t>Push Pin Spike Hazard</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Player\P_Movement.cs</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\Pressureplate.prefab</t>
+  </si>
+  <si>
+    <t>Collapsible Platform</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\CollapsiblePlatform.prefab</t>
+  </si>
+  <si>
+    <t>Nathan/Feng</t>
+  </si>
+  <si>
+    <t>Regular Platforms</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Scene Objects\PyramidPlatform.prefab</t>
+  </si>
+  <si>
+    <t>Adventurer Prefab</t>
+  </si>
+  <si>
+    <t>Ancient Prefab</t>
+  </si>
+  <si>
+    <t>Industrialist Prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Player\Factions\Adventurer.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Player\Factions\Ancient.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Player\Factions\Industrialist.prefab</t>
+  </si>
+  <si>
+    <t>Ashleigh/Pierce</t>
+  </si>
+  <si>
+    <t>Character Animations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\Lever.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\PyramidDoor.prefab</t>
+  </si>
+  <si>
+    <t>The Ancients Mechanic - Pyramid Door</t>
+  </si>
+  <si>
+    <t>The Ancients Mechanic Script</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Animations</t>
+  </si>
+  <si>
+    <t>HUD/GUI</t>
+  </si>
+  <si>
+    <t>Industrialist Mechanic Script</t>
+  </si>
+  <si>
+    <t>Adventurers Mechanic Script</t>
+  </si>
+  <si>
+    <t>Industrialist Mechanic - Proximity Lights</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\ProximityLight.prefab</t>
+  </si>
+  <si>
+    <t>Industrialist Mechanic - Script</t>
+  </si>
+  <si>
+    <t>The Ancients Mechanic - Script</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Interactables\weight.prefab</t>
+  </si>
+  <si>
+    <t>Currently using The Ancients Level Model</t>
+  </si>
+  <si>
+    <t>Platforms/Walls (Static)</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Scene Objects\IndustrialistPlatform.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Scene Objects\IndustrialistWall.prefab</t>
+  </si>
+  <si>
+    <t>Tedious placement may affect completion time</t>
+  </si>
+  <si>
+    <t>Dependant on complexity of movement in each carriage</t>
+  </si>
+  <si>
+    <t>Vertical/Horizontal Moving Sections</t>
+  </si>
+  <si>
+    <t>C:\Users\Joshua\Documents\GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Scene</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Scene\Industrial_HorizontalSlider.cs</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_VerticalSlider.cs</t>
+  </si>
+  <si>
+    <t>Lantern Script</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_Lantern.cs</t>
+  </si>
+  <si>
+    <t>Puzzle Indicator Lights Script</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_IndicatorLight.cs</t>
+  </si>
+  <si>
+    <t>Industrial Brake Script</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_Industrial_Brake.cs</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Interactable\IN_Industrial_Brake_Activated.cs</t>
+  </si>
+  <si>
+    <t>Train Tracks</t>
+  </si>
+  <si>
+    <t>Background (+ script)</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Materials\Scenery\Background</t>
+  </si>
+  <si>
+    <t>Ashleigh/Nathan/Pierce</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +397,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,13 +424,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -289,6 +436,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +884,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -696,105 +897,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -807,204 +1008,1018 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F10" si="0">FIND("GitHub",B3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.2">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.2">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
+      <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2">
+      <c r="A11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11:F56" si="1">FIND("GitHub",B11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D18" s="12">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.2">
+      <c r="A19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="57.6">
+      <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D32" s="12">
+        <v>3</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="43.2">
+      <c r="A33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="12">
+        <v>3</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="43.2">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="12">
+        <v>3</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="43.2">
+      <c r="A35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="12">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="43.2">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="43.2">
+      <c r="A37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
+      <c r="E37" s="12">
+        <v>3</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="43.2">
+      <c r="A38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12">
+        <v>2</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="43.2">
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="12">
+        <v>4</v>
+      </c>
+      <c r="E43" s="12">
+        <v>3</v>
+      </c>
+      <c r="F43" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="43.2">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="12">
+        <v>4</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="43.2">
+      <c r="A45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="12">
+        <v>4</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="43.2">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="12">
+        <v>4</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8">
+      <c r="A47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="D47" s="12">
+        <v>4</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F47" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8">
+      <c r="A48" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="12">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2</v>
+      </c>
+      <c r="F48" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2">
+      <c r="A49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="23">
+        <v>4</v>
+      </c>
+      <c r="E49" s="23">
+        <v>3</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="43.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.2">
+      <c r="A51" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="23">
+        <v>4</v>
+      </c>
+      <c r="E51" s="23">
+        <v>2</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="43.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="43.2">
+      <c r="A53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="16">
+        <v>4</v>
+      </c>
+      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.2">
+      <c r="A54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="16">
+        <v>4</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="43.2">
+      <c r="A55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="21">
+        <v>4</v>
+      </c>
+      <c r="E55" s="21">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="57.6">
+      <c r="A56" s="18"/>
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A20:G27">
+    <sortCondition ref="A20"/>
+  </sortState>
+  <mergeCells count="16">
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A55:A56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Admin Stuff/Spreadsheet Stuff.xlsx
+++ b/Admin Stuff/Spreadsheet Stuff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>Game Component</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Tasks Complete by Due Date</t>
   </si>
   <si>
-    <t>Total Hours per week</t>
-  </si>
-  <si>
     <t>Remaining Effort (hours)</t>
   </si>
   <si>
@@ -397,6 +394,27 @@
   </si>
   <si>
     <t>Hours Completed per week</t>
+  </si>
+  <si>
+    <t>Level Specific Camera Scripting</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Scripts\Scene\Tutorial_RoomChange.cs</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\Scene Objects\Tracks.prefab</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Mesh\Tutorial\Adventurer Tutorial Level.fbx</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Mesh\Tutorial\Ancient Tutorial Level .fbx</t>
+  </si>
+  <si>
+    <t>Hours by Due Date</t>
+  </si>
+  <si>
+    <t>adjustments still need to be made, 95% finished</t>
   </si>
 </sst>
 </file>
@@ -454,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,58 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -534,17 +500,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +594,7 @@
           </c:tx>
           <c:yVal>
             <c:numRef>
-              <c:f>Backlog!$H$9:$L$9</c:f>
+              <c:f>Backlog!$H$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -609,10 +608,10 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,29 +626,32 @@
           </c:tx>
           <c:yVal>
             <c:numRef>
-              <c:f>Backlog!$H$17:$J$17</c:f>
+              <c:f>Backlog!$H$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109649280"/>
-        <c:axId val="111503232"/>
+        <c:axId val="118255616"/>
+        <c:axId val="118257920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109649280"/>
+        <c:axId val="118255616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -684,12 +686,12 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111503232"/>
+        <c:crossAx val="118257920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111503232"/>
+        <c:axId val="118257920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -700,7 +702,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Backlog!$H$7</c:f>
+              <c:f>Backlog!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -713,7 +715,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109649280"/>
+        <c:crossAx val="118255616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -726,7 +728,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -737,15 +739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1341120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1341119</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>548639</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>364672</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1190,10 +1192,10 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1211,8 +1213,8 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1224,7 @@
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1230,8 +1232,8 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1243,7 @@
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
@@ -1262,7 +1264,7 @@
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1275,31 +1277,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="57.6" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -1314,32 +1317,32 @@
       <c r="G1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1347,1191 +1350,1192 @@
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
-        <v>4</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="E3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25">
         <f>IF(ISNUMBER(SEARCH("GitHub",B3))=TRUE,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3">
-        <f>SUMIFS($F$3:$F$53,$D$3:$D$53,1,$F$3:$F$53,1)</f>
+      <c r="G3" s="9"/>
+      <c r="H3" s="23">
+        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,1,$F$3:$F$54,1)</f>
         <v>2</v>
       </c>
-      <c r="I3">
-        <f>SUMIFS($F$3:$F$53,$D$3:$D$53,2,$F$3:$F$53,1)</f>
+      <c r="I3" s="23">
+        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,2,$F$3:$F$54,1)</f>
         <v>6</v>
       </c>
-      <c r="J3">
-        <f>SUMIFS($F$3:$F$53,$D$3:$D$53,3,$F$3:$F$53,1)</f>
+      <c r="J3" s="23">
+        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,3,$F$3:$F$54,1)</f>
         <v>7</v>
       </c>
-      <c r="K3">
-        <f>SUMIFS($F$3:$F$53,$D$3:$D$53,4,$F$3:$F$53,1)</f>
-        <v>12</v>
-      </c>
-      <c r="L3">
-        <f>SUMIFS($F$3:$F$53,$D$3:$D$53,5,$F$3:$F$53,1)</f>
-        <v>1</v>
+      <c r="K3" s="23">
+        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,4,$F$3:$F$54,1)</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="23">
+        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,5,$F$3:$F$54,1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
-        <v>4</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" ref="F4:F53" si="0">IF(ISNUMBER(SEARCH("GitHub",B4))=TRUE,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="E4" s="10">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" ref="F4:F54" si="0">IF(ISNUMBER(SEARCH("GitHub",B4))=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="43.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
-        <v>4</v>
-      </c>
-      <c r="F5" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="23">
+        <f>SUMIF($D$3:$D$54,1,$E$3:$E$54)</f>
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
+      <c r="I5" s="23">
+        <f>SUMIF($D$3:$D$54,2,$E$3:$E$54)</f>
+        <v>25</v>
+      </c>
+      <c r="J5" s="23">
+        <f>SUMIF($D$3:$D$54,3,$E$3:$E$54)</f>
+        <v>22</v>
+      </c>
+      <c r="K5" s="23">
+        <f>SUMIF($D$3:$D$54,4,$E$3:$E$54)</f>
+        <v>64</v>
+      </c>
+      <c r="L5" s="23">
+        <f>SUMIF($D$3:$D$54,5,$E$3:$E$54)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6">
-        <f>SUMIF($D$3:$D$53,1,$E$3:$E$53)</f>
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <f>SUMIF($D$3:$D$53,2,$E$3:$E$53)</f>
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <f>SUMIF($D$3:$D$53,3,$E$3:$E$53)</f>
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <f>SUMIF($D$3:$D$53,4,$E$3:$E$53)</f>
-        <v>60</v>
-      </c>
-      <c r="L6">
-        <f>SUMIF($D$3:$D$53,5,$E$3:$E$53)</f>
-        <v>6</v>
-      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="29.4" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>5</v>
       </c>
-      <c r="F7" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="23">
+        <f>150-H5</f>
+        <v>144</v>
+      </c>
+      <c r="I7" s="23">
+        <f>150-SUM(H5:I5)</f>
+        <v>119</v>
+      </c>
+      <c r="J7" s="23">
+        <f>150-SUM(H5:J5)</f>
+        <v>97</v>
+      </c>
+      <c r="K7" s="23">
+        <f>150-SUM(H5:K5)</f>
+        <v>33</v>
+      </c>
+      <c r="L7" s="23">
+        <f>150-SUM(H5:L5)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="28.8">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="43.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9">
-        <f>150-H6</f>
-        <v>144</v>
-      </c>
-      <c r="I9">
-        <f>150-SUM(H6:I6)</f>
-        <v>119</v>
-      </c>
-      <c r="J9">
-        <f>150-SUM(H6:J6)</f>
-        <v>97</v>
-      </c>
-      <c r="K9">
-        <f>150-SUM(H6:K6)</f>
-        <v>37</v>
-      </c>
-      <c r="L9">
-        <f>150-SUM(H6:L6)</f>
-        <v>31</v>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="23">
+        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,1,$F$3:$F$54,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I9" s="23">
+        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,2,$F$3:$F$54,1)</f>
+        <v>25</v>
+      </c>
+      <c r="J9" s="23">
+        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,3,$F$3:$F$54,1)</f>
+        <v>22</v>
+      </c>
+      <c r="K9" s="23">
+        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,4,$F$3:$F$54,1)</f>
+        <v>56</v>
+      </c>
+      <c r="L9" s="23">
+        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,5,$F$3:$F$54,1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="12">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="43.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="18">
         <v>5</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="14">
         <v>3</v>
       </c>
-      <c r="F11" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="23">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
+      <c r="I11" s="23">
+        <v>35</v>
+      </c>
+      <c r="J11" s="23">
+        <v>87</v>
+      </c>
+      <c r="K11" s="23">
+        <f>SUM(H9:L9)</f>
+        <v>115</v>
+      </c>
+      <c r="L11" s="23">
+        <f>SUM(H9:L9)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12">
-        <f>SUMIFS($E$3:$E$53,$D$3:$D$53,1,$F$3:$F$53,1)</f>
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <f>SUMIFS($E$3:$E$53,$D$3:$D$53,2,$F$3:$F$53,1)</f>
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <f>SUMIFS($E$3:$E$53,$D$3:$D$53,3,$F$3:$F$53,1)</f>
-        <v>22</v>
-      </c>
-      <c r="K12">
-        <f>SUMIFS($E$3:$E$53,$D$3:$D$53,4,$F$3:$F$53,1)</f>
-        <v>35</v>
-      </c>
-      <c r="L12">
-        <f>SUMIFS($E$3:$E$53,$D$3:$D$53,5,$F$3:$F$53,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="C12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="F13" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="23">
+        <f>150-H11</f>
+        <v>144</v>
+      </c>
+      <c r="I13" s="23">
+        <f>150-I11</f>
+        <v>115</v>
+      </c>
+      <c r="J13" s="23">
+        <f>150-J11</f>
+        <v>63</v>
+      </c>
+      <c r="K13" s="23">
+        <f>150-K11</f>
+        <v>35</v>
+      </c>
+      <c r="L13" s="23">
+        <f>150-L11</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="13"/>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
-      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="13"/>
-      <c r="H15">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <f>6+25</f>
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <f>6+25+22+35+3</f>
-        <v>91</v>
-      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="13"/>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="18" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="21">
-        <v>4</v>
-      </c>
-      <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="25">
         <f t="shared" ref="F17:F18" si="1">IF(ISNUMBER(SEARCH("GitHub",B17))=TRUE,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17">
-        <f>150-H15</f>
-        <v>144</v>
-      </c>
-      <c r="I17">
-        <f>150-SUM(H15:I15)</f>
-        <v>113</v>
-      </c>
-      <c r="J17">
-        <f>150-SUM(H15:J15)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="18" t="s">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2">
+      <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="21">
-        <v>4</v>
-      </c>
-      <c r="E18" s="21">
-        <v>4</v>
-      </c>
-      <c r="F18" s="22">
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.2">
+      <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="12">
-        <v>4</v>
-      </c>
-      <c r="E19" s="12">
-        <v>4</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="43.2">
+      <c r="D19" s="10">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
       <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="12">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12">
-        <v>4</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.2">
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="12">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="43.2">
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="12">
-        <v>4</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="7" t="s">
+      <c r="F22" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.2">
+      <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="12">
-        <v>4</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="7" t="s">
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.2">
+      <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="12">
-        <v>4</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="18" t="s">
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2">
+      <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="12">
-        <v>4</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" ht="15">
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2">
+      <c r="A26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="15">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="57.6">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="57.6">
+      <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="10">
         <v>3</v>
       </c>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="43.2">
-      <c r="A30" s="5" t="s">
+      <c r="F30" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="43.2">
+      <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="10">
         <v>2</v>
       </c>
-      <c r="E30" s="12">
-        <v>4</v>
-      </c>
-      <c r="F30" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="43.2">
-      <c r="A31" s="5" t="s">
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="43.2">
+      <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="12">
-        <v>3</v>
-      </c>
-      <c r="E31" s="12">
-        <v>3</v>
-      </c>
-      <c r="F31" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" ht="43.2">
-      <c r="A32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>3</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>3</v>
       </c>
-      <c r="F32" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="13"/>
+      <c r="F32" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="43.2">
       <c r="A33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>3</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>3</v>
       </c>
-      <c r="F33" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="13"/>
+      <c r="F33" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="43.2">
       <c r="A34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>3</v>
       </c>
-      <c r="E34" s="12">
-        <v>4</v>
-      </c>
-      <c r="F34" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="13"/>
+      <c r="E34" s="10">
+        <v>3</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="43.2">
       <c r="A35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="E35" s="12">
-        <v>3</v>
-      </c>
-      <c r="F35" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="13"/>
+      <c r="E35" s="10">
+        <v>4</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="43.2">
       <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="10">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10">
+        <v>3</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="43.2">
+      <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="10">
         <v>3</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="10">
         <v>3</v>
       </c>
-      <c r="F36" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="6" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="12">
-        <v>4</v>
-      </c>
-      <c r="E40" s="12">
-        <v>4</v>
-      </c>
-      <c r="F40" s="22">
+      <c r="D41" s="10">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4</v>
+      </c>
+      <c r="F41" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="43.2">
-      <c r="A41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="12">
-        <v>4</v>
-      </c>
-      <c r="E41" s="12">
-        <v>3</v>
-      </c>
-      <c r="F41" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="43.2">
       <c r="A42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="12">
-        <v>4</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10">
         <v>3</v>
       </c>
-      <c r="F42" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G42" s="13"/>
+      <c r="F42" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="43.2">
       <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="43.2">
+      <c r="A44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="12">
-        <v>4</v>
-      </c>
-      <c r="E43" s="12">
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
+      <c r="E44" s="10">
         <v>2</v>
       </c>
-      <c r="F43" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.8">
-      <c r="A44" s="5" t="s">
+      <c r="F44" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="43.2">
+      <c r="A45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="12">
-        <v>4</v>
-      </c>
-      <c r="E44" s="12">
-        <v>3</v>
-      </c>
-      <c r="F44" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.8">
-      <c r="A45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="12">
-        <v>4</v>
-      </c>
-      <c r="E45" s="12">
+      <c r="D45" s="10">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10">
         <v>3</v>
       </c>
-      <c r="F45" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="43.2">
-      <c r="A46" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>97</v>
+      <c r="A46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="28">
-        <v>4</v>
-      </c>
-      <c r="E46" s="28">
-        <v>4</v>
-      </c>
-      <c r="F46" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="D46" s="10">
+        <v>4</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3</v>
+      </c>
+      <c r="F46" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2">
+      <c r="A47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="18">
+        <v>4</v>
+      </c>
+      <c r="E47" s="18">
+        <v>4</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="13" t="s">
+    <row r="48" spans="1:7" ht="43.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7" ht="43.2">
-      <c r="A48" s="23" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="43.2">
+      <c r="A49" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="28">
-        <v>4</v>
-      </c>
-      <c r="E48" s="28">
+      <c r="D49" s="18">
+        <v>4</v>
+      </c>
+      <c r="E49" s="18">
         <v>3</v>
       </c>
-      <c r="F48" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="43.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="13" t="s">
+      <c r="F49" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="43.8">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.2">
+      <c r="A51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="15">
-        <v>4</v>
-      </c>
-      <c r="E50" s="15">
+      <c r="D51" s="8">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
         <v>2</v>
       </c>
-      <c r="F50" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="43.8">
-      <c r="A51" s="5" t="s">
+      <c r="F51" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="43.2">
+      <c r="A52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="15">
-        <v>4</v>
-      </c>
-      <c r="E51" s="15">
+      <c r="D52" s="8">
+        <v>4</v>
+      </c>
+      <c r="E52" s="8">
         <v>2</v>
       </c>
-      <c r="F51" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="43.8">
-      <c r="A52" s="23" t="s">
+      <c r="F52" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="43.2">
+      <c r="A53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="26">
-        <v>4</v>
-      </c>
-      <c r="E52" s="26">
+      <c r="D53" s="20">
+        <v>4</v>
+      </c>
+      <c r="E53" s="20">
         <v>2</v>
       </c>
-      <c r="F52" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="58.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="9" t="s">
+      <c r="F53" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="57.6">
+      <c r="A54" s="13"/>
+      <c r="B54" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="5"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A20:G27">
     <sortCondition ref="A20"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
+  <mergeCells count="22">
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Admin Stuff/Spreadsheet Stuff.xlsx
+++ b/Admin Stuff/Spreadsheet Stuff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>Game Component</t>
   </si>
@@ -415,6 +415,30 @@
   </si>
   <si>
     <t>adjustments still need to be made, 95% finished</t>
+  </si>
+  <si>
+    <t>Ashleigh/Josh/Nathan</t>
+  </si>
+  <si>
+    <t>GitHub\There-are-no-brakes\There are no brakes\Assets\There are no Brakes\Prefabs\TempIndustrialFab.prefab</t>
+  </si>
+  <si>
+    <t>needs to be moved into proper folder and renamed</t>
+  </si>
+  <si>
+    <t>Test Feedback Implementation</t>
+  </si>
+  <si>
+    <t>&gt;5</t>
+  </si>
+  <si>
+    <t>Actual Assets present here will be added following testing feedback</t>
+  </si>
+  <si>
+    <t>Comic Strip Cutscenes</t>
+  </si>
+  <si>
+    <t>Adventurer (final assets)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,37 +536,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +647,10 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,18 +679,18 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="118255616"/>
-        <c:axId val="118257920"/>
+        <c:axId val="109240320"/>
+        <c:axId val="109242624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118255616"/>
+        <c:axId val="109240320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -686,12 +725,12 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118257920"/>
+        <c:crossAx val="109242624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118257920"/>
+        <c:axId val="109242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -715,7 +754,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118255616"/>
+        <c:crossAx val="109240320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,7 +767,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -738,16 +777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1341119</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62048</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>548639</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>364672</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156754</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>364673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1192,10 +1231,10 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1213,8 +1252,8 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1263,7 @@
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1232,8 +1271,8 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1282,7 @@
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
@@ -1264,7 +1303,7 @@
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1277,22 +1316,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="23"/>
+    <col min="5" max="5" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="57.6" customHeight="1">
@@ -1317,32 +1356,32 @@
       <c r="G1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1362,29 +1401,29 @@
       <c r="E3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="19">
         <f>IF(ISNUMBER(SEARCH("GitHub",B3))=TRUE,1,0)</f>
         <v>1</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="23">
-        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,1,$F$3:$F$54,1)</f>
+      <c r="H3" s="17">
+        <f>SUMIFS($F$3:$F$55,$D$3:$D$55,1,$F$3:$F$55,1)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="23">
-        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,2,$F$3:$F$54,1)</f>
+      <c r="I3" s="17">
+        <f>SUMIFS($F$3:$F$55,$D$3:$D$55,2,$F$3:$F$55,1)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="23">
-        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,3,$F$3:$F$54,1)</f>
+      <c r="J3" s="17">
+        <f>SUMIFS($F$3:$F$55,$D$3:$D$55,3,$F$3:$F$55,1)</f>
         <v>7</v>
       </c>
-      <c r="K3" s="23">
-        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,4,$F$3:$F$54,1)</f>
-        <v>20</v>
-      </c>
-      <c r="L3" s="23">
-        <f>SUMIFS($F$3:$F$54,$D$3:$D$54,5,$F$3:$F$54,1)</f>
+      <c r="K3" s="17">
+        <f>SUMIFS($F$3:$F$55,$D$3:$D$55,4,$F$3:$F$55,1)</f>
+        <v>21</v>
+      </c>
+      <c r="L3" s="17">
+        <f>SUMIFS($F$3:$F$55,$D$3:$D$55,5,$F$3:$F$55,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1404,18 +1443,18 @@
       <c r="E4" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="25">
-        <f t="shared" ref="F4:F54" si="0">IF(ISNUMBER(SEARCH("GitHub",B4))=TRUE,1,0)</f>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F55" si="0">IF(ISNUMBER(SEARCH("GitHub",B4))=TRUE,1,0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="43.2">
       <c r="A5" s="5" t="s">
@@ -1433,30 +1472,30 @@
       <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="23">
-        <f>SUMIF($D$3:$D$54,1,$E$3:$E$54)</f>
+      <c r="H5" s="17">
+        <f>SUMIF($D$3:$D$55,1,$E$3:$E$55)</f>
         <v>6</v>
       </c>
-      <c r="I5" s="23">
-        <f>SUMIF($D$3:$D$54,2,$E$3:$E$54)</f>
+      <c r="I5" s="17">
+        <f>SUMIF($D$3:$D$55,2,$E$3:$E$55)</f>
         <v>25</v>
       </c>
-      <c r="J5" s="23">
-        <f>SUMIF($D$3:$D$54,3,$E$3:$E$54)</f>
+      <c r="J5" s="17">
+        <f>SUMIF($D$3:$D$55,3,$E$3:$E$55)</f>
         <v>22</v>
       </c>
-      <c r="K5" s="23">
-        <f>SUMIF($D$3:$D$54,4,$E$3:$E$54)</f>
-        <v>64</v>
-      </c>
-      <c r="L5" s="23">
-        <f>SUMIF($D$3:$D$54,5,$E$3:$E$54)</f>
-        <v>6</v>
+      <c r="K5" s="17">
+        <f>SUMIF($D$3:$D$55,4,$E$3:$E$55)</f>
+        <v>68</v>
+      </c>
+      <c r="L5" s="17">
+        <f>SUMIF($D$3:$D$55,5,$E$3:$E$55)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2">
@@ -1475,18 +1514,18 @@
       <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="29.4" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -1504,30 +1543,30 @@
       <c r="E7" s="10">
         <v>5</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <f>150-H5</f>
         <v>144</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="17">
         <f>150-SUM(H5:I5)</f>
         <v>119</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="17">
         <f>150-SUM(H5:J5)</f>
         <v>97</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="17">
         <f>150-SUM(H5:K5)</f>
-        <v>33</v>
-      </c>
-      <c r="L7" s="23">
+        <v>29</v>
+      </c>
+      <c r="L7" s="17">
         <f>150-SUM(H5:L5)</f>
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8">
@@ -1546,18 +1585,18 @@
       <c r="E8" s="10">
         <v>3</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="43.2">
       <c r="A9" s="5" t="s">
@@ -1575,29 +1614,29 @@
       <c r="E9" s="10">
         <v>4</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="23">
-        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,1,$F$3:$F$54,1)</f>
+      <c r="H9" s="17">
+        <f>SUMIFS($E$3:$E$55,$D$3:$D$55,1,$F$3:$F$55,1)</f>
         <v>6</v>
       </c>
-      <c r="I9" s="23">
-        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,2,$F$3:$F$54,1)</f>
+      <c r="I9" s="17">
+        <f>SUMIFS($E$3:$E$55,$D$3:$D$55,2,$F$3:$F$55,1)</f>
         <v>25</v>
       </c>
-      <c r="J9" s="23">
-        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,3,$F$3:$F$54,1)</f>
+      <c r="J9" s="17">
+        <f>SUMIFS($E$3:$E$55,$D$3:$D$55,3,$F$3:$F$55,1)</f>
         <v>22</v>
       </c>
-      <c r="K9" s="23">
-        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,4,$F$3:$F$54,1)</f>
-        <v>56</v>
-      </c>
-      <c r="L9" s="23">
-        <f>SUMIFS($E$3:$E$54,$D$3:$D$54,5,$F$3:$F$54,1)</f>
+      <c r="K9" s="17">
+        <f>SUMIFS($E$3:$E$55,$D$3:$D$55,4,$F$3:$F$55,1)</f>
+        <v>62</v>
+      </c>
+      <c r="L9" s="17">
+        <f>SUMIFS($E$3:$E$55,$D$3:$D$55,5,$F$3:$F$55,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -1617,80 +1656,80 @@
       <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="43.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="25">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>6</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="17">
         <v>35</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="17">
         <v>87</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="17">
         <f>SUM(H9:L9)</f>
-        <v>115</v>
-      </c>
-      <c r="L11" s="23">
+        <v>121</v>
+      </c>
+      <c r="L11" s="17">
         <f>SUM(H9:L9)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8">
-      <c r="A12" s="13"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="25">
+      <c r="C12" s="21"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="5" t="s">
@@ -1708,106 +1747,122 @@
       <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="23">
+      <c r="H13" s="17">
         <f>150-H11</f>
         <v>144</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="17">
         <f>150-I11</f>
         <v>115</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="17">
         <f>150-J11</f>
         <v>63</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="17">
         <f>150-K11</f>
-        <v>35</v>
-      </c>
-      <c r="L13" s="23">
+        <v>29</v>
+      </c>
+      <c r="L13" s="17">
         <f>150-L11</f>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="5"/>
+      <c r="A14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>20</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="57.6">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="10">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="9"/>
       <c r="C16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="5" t="s">
-        <v>118</v>
+      <c r="A17" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10">
-        <v>4</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" ref="F17:F18" si="1">IF(ISNUMBER(SEARCH("GitHub",B17))=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="43.2">
       <c r="A18" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>118</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="D18" s="10">
         <v>4</v>
       </c>
       <c r="E18" s="10">
-        <v>4</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" ref="F18:F19" si="1">IF(ISNUMBER(SEARCH("GitHub",B18))=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
@@ -1818,21 +1873,21 @@
       <c r="E19" s="10">
         <v>4</v>
       </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="43.2">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10">
         <v>4</v>
@@ -1840,7 +1895,7 @@
       <c r="E20" s="10">
         <v>4</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1848,10 +1903,10 @@
     </row>
     <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>41</v>
@@ -1860,9 +1915,9 @@
         <v>4</v>
       </c>
       <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="25">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1870,21 +1925,21 @@
     </row>
     <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="10">
         <v>4</v>
       </c>
       <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="25">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1892,21 +1947,21 @@
     </row>
     <row r="23" spans="1:7" ht="43.2">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1914,10 +1969,10 @@
     </row>
     <row r="24" spans="1:7" ht="43.2">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>120</v>
@@ -1928,7 +1983,7 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1936,10 +1991,10 @@
     </row>
     <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>120</v>
@@ -1950,7 +2005,7 @@
       <c r="E25" s="10">
         <v>1</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1958,93 +2013,93 @@
     </row>
     <row r="26" spans="1:7" ht="43.2">
       <c r="A26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2">
+      <c r="A27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10">
-        <v>4</v>
-      </c>
-      <c r="E26" s="10">
-        <v>4</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="D27" s="10">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="5"/>
       <c r="B28" s="9"/>
       <c r="C28" s="6"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="9"/>
       <c r="C29" s="6"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="57.6">
+      <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>3</v>
       </c>
-      <c r="F30" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="43.2">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10">
-        <v>4</v>
-      </c>
-      <c r="F31" s="25">
+      <c r="F31" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2052,21 +2107,21 @@
     </row>
     <row r="32" spans="1:7" ht="43.2">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="10">
-        <v>3</v>
-      </c>
-      <c r="F32" s="25">
+        <v>4</v>
+      </c>
+      <c r="F32" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2074,10 +2129,10 @@
     </row>
     <row r="33" spans="1:7" ht="43.2">
       <c r="A33" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>43</v>
@@ -2088,7 +2143,7 @@
       <c r="E33" s="10">
         <v>3</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2096,10 +2151,10 @@
     </row>
     <row r="34" spans="1:7" ht="43.2">
       <c r="A34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>43</v>
@@ -2110,7 +2165,7 @@
       <c r="E34" s="10">
         <v>3</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2118,10 +2173,10 @@
     </row>
     <row r="35" spans="1:7" ht="43.2">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>43</v>
@@ -2130,9 +2185,9 @@
         <v>3</v>
       </c>
       <c r="E35" s="10">
-        <v>4</v>
-      </c>
-      <c r="F35" s="25">
+        <v>3</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2140,10 +2195,10 @@
     </row>
     <row r="36" spans="1:7" ht="43.2">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>43</v>
@@ -2152,9 +2207,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="10">
-        <v>3</v>
-      </c>
-      <c r="F36" s="25">
+        <v>4</v>
+      </c>
+      <c r="F36" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2162,13 +2217,13 @@
     </row>
     <row r="37" spans="1:7" ht="43.2">
       <c r="A37" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -2176,18 +2231,32 @@
       <c r="E37" s="10">
         <v>3</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="25"/>
+    <row r="38" spans="1:7" ht="43.2">
+      <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="10">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2195,67 +2264,53 @@
       <c r="B39" s="9"/>
       <c r="C39" s="6"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="6"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="10">
-        <v>4</v>
-      </c>
-      <c r="E41" s="10">
-        <v>4</v>
-      </c>
-      <c r="F41" s="25">
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10">
+        <v>6</v>
+      </c>
+      <c r="F42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="43.2">
-      <c r="A42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="10">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10">
-        <v>3</v>
-      </c>
-      <c r="F42" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="43.2">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>41</v>
@@ -2266,7 +2321,7 @@
       <c r="E43" s="10">
         <v>3</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2274,21 +2329,21 @@
     </row>
     <row r="44" spans="1:7" ht="43.2">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
       </c>
       <c r="E44" s="10">
-        <v>2</v>
-      </c>
-      <c r="F44" s="25">
+        <v>3</v>
+      </c>
+      <c r="F44" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2296,34 +2351,32 @@
     </row>
     <row r="45" spans="1:7" ht="43.2">
       <c r="A45" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="10">
         <v>4</v>
       </c>
       <c r="E45" s="10">
-        <v>3</v>
-      </c>
-      <c r="F45" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="43.2">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>43</v>
@@ -2334,7 +2387,7 @@
       <c r="E46" s="10">
         <v>3</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2343,96 +2396,98 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2">
-      <c r="A47" s="13" t="s">
-        <v>96</v>
+      <c r="A47" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="18">
-        <v>4</v>
-      </c>
-      <c r="E47" s="18">
-        <v>4</v>
-      </c>
-      <c r="F47" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="D47" s="10">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2">
+      <c r="A48" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="25">
+        <v>4</v>
+      </c>
+      <c r="E48" s="25">
+        <v>4</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9" t="s">
+    <row r="49" spans="1:7" ht="43.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="43.2">
-      <c r="A49" s="13" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.2">
+      <c r="A50" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="18">
-        <v>4</v>
-      </c>
-      <c r="E49" s="18">
+      <c r="D50" s="25">
+        <v>4</v>
+      </c>
+      <c r="E50" s="25">
         <v>3</v>
       </c>
-      <c r="F49" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="43.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="9" t="s">
+      <c r="F50" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="43.2">
-      <c r="A51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="8">
-        <v>4</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2</v>
-      </c>
-      <c r="F51" s="25">
+      <c r="C51" s="21"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2440,13 +2495,13 @@
     </row>
     <row r="52" spans="1:7" ht="43.2">
       <c r="A52" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="8">
         <v>4</v>
@@ -2454,75 +2509,102 @@
       <c r="E52" s="8">
         <v>2</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="43.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="8">
+        <v>4</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.2">
+      <c r="A54" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B54" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="20">
-        <v>4</v>
-      </c>
-      <c r="E53" s="20">
+      <c r="D54" s="24">
+        <v>4</v>
+      </c>
+      <c r="E54" s="24">
         <v>2</v>
       </c>
-      <c r="F53" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" ht="57.6">
-      <c r="A54" s="13"/>
-      <c r="B54" s="24" t="s">
+      <c r="F54" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="57.6">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="30" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A20:G27">
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="1">
